--- a/output/fit_clients/fit_round_265.xlsx
+++ b/output/fit_clients/fit_round_265.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2104646093.898576</v>
+        <v>1743869064.102373</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1046925846486589</v>
+        <v>0.1013412257085788</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02959162491990375</v>
+        <v>0.03442224044836082</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1052323056.639855</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1772779636.723078</v>
+        <v>1716641899.478842</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1621127746810935</v>
+        <v>0.1695179413384006</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04949190844852241</v>
+        <v>0.05022061827027874</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>886389823.2273787</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3534202668.005145</v>
+        <v>4983495909.199816</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1666131316032899</v>
+        <v>0.1064206033254666</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02685412889790324</v>
+        <v>0.0234643326888364</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>96</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1767101315.174876</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3871216563.599857</v>
+        <v>3684539540.126064</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07975548213469374</v>
+        <v>0.07154203967482455</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03992138464653806</v>
+        <v>0.05058301784846427</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1935608293.983437</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2764233070.753226</v>
+        <v>2563163400.253146</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1167281049627357</v>
+        <v>0.0901376459637038</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03616567820801374</v>
+        <v>0.05177248085378201</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>43</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1382116482.255661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3067525825.515454</v>
+        <v>3011633501.509328</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09347371094483066</v>
+        <v>0.07967247141862896</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03972205804542806</v>
+        <v>0.03298103808636118</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>83</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1533762871.155043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2438872558.277734</v>
+        <v>3311819565.806148</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2132596490825032</v>
+        <v>0.2053954772127657</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02086624277588885</v>
+        <v>0.03232309684003372</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>84</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1219436279.285736</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2159080578.309381</v>
+        <v>2218541323.994338</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1266416875713427</v>
+        <v>0.1748184925633121</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02840657061919978</v>
+        <v>0.02303494413712939</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1079540293.686929</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4076780886.035629</v>
+        <v>4489961808.288316</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1553759393340848</v>
+        <v>0.1768832229706188</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04493819049845584</v>
+        <v>0.04502547024350455</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>111</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2038390470.876281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2733630715.334697</v>
+        <v>4217861770.575315</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1178922462600077</v>
+        <v>0.1526903210289292</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03283365949010843</v>
+        <v>0.03303728578673409</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>110</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1366815282.033417</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2639249126.014771</v>
+        <v>2772905426.303343</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1275745517989089</v>
+        <v>0.1477078178809458</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03775150393841582</v>
+        <v>0.0530466380221607</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>90</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1319624547.981603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5350671950.939822</v>
+        <v>3947356813.6945</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08576744416121314</v>
+        <v>0.09762552962855683</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02595340153713915</v>
+        <v>0.01977027031880526</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>89</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2675335961.792866</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2827517388.065401</v>
+        <v>3293291567.711937</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1705309758896937</v>
+        <v>0.1434402928235078</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03191863050217619</v>
+        <v>0.0298197913264652</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>84</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1413758740.955419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1594806907.982671</v>
+        <v>1154608638.424819</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08651882213487956</v>
+        <v>0.1010522463381927</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03709702933646247</v>
+        <v>0.03144469783580073</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>797403560.9821618</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2008425985.185187</v>
+        <v>1772476254.713589</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0957367524982443</v>
+        <v>0.09885838429079188</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03977978559566085</v>
+        <v>0.04261282013192902</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>49</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1004213067.322622</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3841479480.282286</v>
+        <v>3405672623.345254</v>
       </c>
       <c r="F17" t="n">
-        <v>0.146662683342022</v>
+        <v>0.1168167144351528</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04092015197779865</v>
+        <v>0.04753629360717643</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>77</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1920739782.581463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2527257194.343494</v>
+        <v>3016663410.063166</v>
       </c>
       <c r="F18" t="n">
-        <v>0.166580071244319</v>
+        <v>0.1849115187035537</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03244363105095385</v>
+        <v>0.02494153001310533</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>87</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1263628661.655396</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1302115330.11964</v>
+        <v>1373550541.599755</v>
       </c>
       <c r="F19" t="n">
-        <v>0.138826878666082</v>
+        <v>0.1491242818496226</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01654473737887901</v>
+        <v>0.02059846482715513</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>651057767.8573356</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1945005187.214977</v>
+        <v>2091465081.567875</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1088431106375974</v>
+        <v>0.1168158696174648</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02157005844725769</v>
+        <v>0.02880156672758004</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>40</v>
-      </c>
-      <c r="J20" t="n">
-        <v>972502625.7906433</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2471263764.289255</v>
+        <v>1710379197.086438</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07003998377060361</v>
+        <v>0.06241650006918065</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03766485864580829</v>
+        <v>0.03499776930779509</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>21</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1235631873.03463</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3411630462.20422</v>
+        <v>2494270303.815187</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1244825108801547</v>
+        <v>0.1053991451028299</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05091980973113562</v>
+        <v>0.04188131526267486</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>74</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1705815267.976878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1308651464.00608</v>
+        <v>1454292409.347519</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1432426160120953</v>
+        <v>0.1796489060293328</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03318919577806939</v>
+        <v>0.03346692500344064</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>654325750.1924483</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4116885537.029308</v>
+        <v>2559149995.224932</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1492127703006685</v>
+        <v>0.09478812608076453</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03075409701441748</v>
+        <v>0.02791026646381477</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>77</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2058442728.637006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>893803346.8717235</v>
+        <v>992428210.6606442</v>
       </c>
       <c r="F25" t="n">
-        <v>0.104039153870152</v>
+        <v>0.11816664954394</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01994863027442019</v>
+        <v>0.01910838879020298</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>446901761.8455022</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>948901869.3770465</v>
+        <v>935761940.6467564</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1050284496147707</v>
+        <v>0.1242376071135077</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02880723725103419</v>
+        <v>0.02866321024475073</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>474450894.2315751</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3728837653.73151</v>
+        <v>2849082959.178589</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1097033388975113</v>
+        <v>0.09490435422885875</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02102072592523202</v>
+        <v>0.0246051249377905</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1864418850.467349</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3688096016.34568</v>
+        <v>3125396278.215575</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1434634380045865</v>
+        <v>0.1346508217826871</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03880869927804897</v>
+        <v>0.03657177746169277</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>88</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1844048079.145033</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4001239301.009854</v>
+        <v>5731726475.71742</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1082865260505798</v>
+        <v>0.09749013495371471</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03698805127981132</v>
+        <v>0.03019175933973096</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>118</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2000619667.234651</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1703512027.037</v>
+        <v>1922634807.620031</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1028624759371332</v>
+        <v>0.1355477505760413</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03983845720042699</v>
+        <v>0.02598388596674919</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>851756017.2375532</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>952957003.20618</v>
+        <v>1420740121.218406</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1113838171555144</v>
+        <v>0.1043832293158276</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04905830995278771</v>
+        <v>0.05257359231772115</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>476478511.2212034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1741210437.90348</v>
+        <v>1488358743.088627</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1120971666332827</v>
+        <v>0.08893339498192365</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02904977467865026</v>
+        <v>0.03485755821955967</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>870605337.2712016</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2831459021.764307</v>
+        <v>2885169938.015485</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1693194309828946</v>
+        <v>0.1810051146886134</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03944100920206633</v>
+        <v>0.0369889188979517</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>81</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1415729520.861553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1497285605.38725</v>
+        <v>1534725733.642293</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09504097244124797</v>
+        <v>0.1027653286287645</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01794356410307273</v>
+        <v>0.0212271625762352</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>748642759.0345387</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1326543672.561939</v>
+        <v>1258424562.712591</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1165138880605243</v>
+        <v>0.09093932612322594</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03002300867725938</v>
+        <v>0.03570471368777873</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>663271783.2430285</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2046288921.045454</v>
+        <v>2974756324.901555</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1499327165275356</v>
+        <v>0.1245514373114847</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02695403577058412</v>
+        <v>0.02476711705519844</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>66</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1023144518.824106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2797878929.694856</v>
+        <v>2519620661.013813</v>
       </c>
       <c r="F37" t="n">
-        <v>0.099097103010201</v>
+        <v>0.08956800537479809</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02806382141645178</v>
+        <v>0.03773271151466968</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>69</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1398939601.862299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1540097802.983075</v>
+        <v>1885981447.347402</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09650582924427575</v>
+        <v>0.07978122912680043</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03084741851273582</v>
+        <v>0.0284093065261578</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>770048945.0796236</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2113393737.720592</v>
+        <v>1751219195.136252</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1614411413606981</v>
+        <v>0.1536178479347803</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02149632695169756</v>
+        <v>0.03070234673139555</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1056696846.164409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1753198555.967705</v>
+        <v>1772013595.492323</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1015069695574934</v>
+        <v>0.1611703505581116</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04914605271553991</v>
+        <v>0.05054168083891847</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>876599180.79413</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2320411701.757291</v>
+        <v>2432800430.738119</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1072720449935372</v>
+        <v>0.1060730242215249</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04041043587003137</v>
+        <v>0.03373311819011687</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>63</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1160205893.713801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4278361853.764542</v>
+        <v>4311713875.103068</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1024717803169446</v>
+        <v>0.09947993373202794</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04262790974073027</v>
+        <v>0.03618752384212004</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2139180975.334047</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2533411249.15956</v>
+        <v>2433758424.675221</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1605030565069115</v>
+        <v>0.1638151367709803</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01968359201886856</v>
+        <v>0.02210065038852828</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>95</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1266705669.889247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1493321861.430078</v>
+        <v>1776495748.972227</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0940581101868537</v>
+        <v>0.07243290485372159</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03667443325433121</v>
+        <v>0.03615743986877733</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>746660935.9550622</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2196679563.632619</v>
+        <v>1546203282.449628</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1794861456172409</v>
+        <v>0.1913454673249461</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03608283023955169</v>
+        <v>0.0395763184206935</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1098339792.502476</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3990134450.591114</v>
+        <v>5323170858.16118</v>
       </c>
       <c r="F46" t="n">
-        <v>0.110431641255692</v>
+        <v>0.1474942658895206</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04960456663753271</v>
+        <v>0.04219164086586573</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>94</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1995067194.256189</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3179226977.376746</v>
+        <v>3500437120.965844</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1496723322367963</v>
+        <v>0.1421596591722903</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05971096095874092</v>
+        <v>0.05862239157572648</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>71</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1589613441.321345</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3811885449.961241</v>
+        <v>3327975936.41076</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07113704466079959</v>
+        <v>0.06907417941991469</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03787279593825336</v>
+        <v>0.03790964569339193</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1905942770.2671</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1252245049.09135</v>
+        <v>1510835910.413801</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1434875895463076</v>
+        <v>0.1463898065900863</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0374250141853518</v>
+        <v>0.03654720072904397</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>626122595.0852655</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3780336913.664538</v>
+        <v>3623037730.405408</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1530848635955162</v>
+        <v>0.1706786590586159</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04347975030044778</v>
+        <v>0.05020518269570317</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>90</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1890168461.136091</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1207057442.972855</v>
+        <v>933819296.2377315</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1232913225983159</v>
+        <v>0.1197734943148761</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03866020868200565</v>
+        <v>0.04746769428355897</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>603528771.895483</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4165619631.543344</v>
+        <v>3613991263.100243</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1375728171166693</v>
+        <v>0.1363186136562119</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03938276393152329</v>
+        <v>0.04345673712755412</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>109</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2082809862.495952</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2847888573.137793</v>
+        <v>2438244261.456058</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1669512050182329</v>
+        <v>0.1544015158817267</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03488996912740706</v>
+        <v>0.0293543811054046</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>76</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1423944329.503475</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3505253104.341545</v>
+        <v>3451903277.132071</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1496469109696023</v>
+        <v>0.1248620176538378</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03537585932840001</v>
+        <v>0.04178710132249581</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>86</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1752626577.393958</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3333274272.357133</v>
+        <v>4885230446.073133</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1443799096573899</v>
+        <v>0.1449781983550368</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02278741778412251</v>
+        <v>0.02803481739333771</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1666637081.647108</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1659840051.83124</v>
+        <v>1356947867.548793</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1294268835403374</v>
+        <v>0.1645494982090373</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03687348413980127</v>
+        <v>0.04693225054876585</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>829920044.4952103</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3053158034.935921</v>
+        <v>4483169287.483718</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1396684868167483</v>
+        <v>0.1311583562314787</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01860612525249787</v>
+        <v>0.0211799019833965</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>85</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1526579026.325241</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1513915372.039685</v>
+        <v>1667144377.586858</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1308741048724202</v>
+        <v>0.1436347070363924</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02399249109491981</v>
+        <v>0.03329016523609642</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>756957715.8938663</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5184509851.278631</v>
+        <v>5424191780.211678</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1182483588669479</v>
+        <v>0.1042674724723404</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04311044675949536</v>
+        <v>0.03598807190319258</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>72</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2592254844.430954</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2416453421.918633</v>
+        <v>3757243026.29395</v>
       </c>
       <c r="F60" t="n">
-        <v>0.188922115751937</v>
+        <v>0.1988912868106333</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02956498591936963</v>
+        <v>0.02012662759851894</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>82</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1208226720.093487</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3011590223.918314</v>
+        <v>2065980856.77598</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1279028626453489</v>
+        <v>0.1251746039873742</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03032260614326154</v>
+        <v>0.02307995638686043</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>91</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1505795091.328959</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1348988925.175483</v>
+        <v>1318320694.532251</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1327493676790697</v>
+        <v>0.1387844753434799</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04125717274019405</v>
+        <v>0.03721572770414486</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>674494423.0025773</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5236645806.633681</v>
+        <v>5620093004.112568</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07864287592096963</v>
+        <v>0.07869601959192372</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0434075045685379</v>
+        <v>0.02939004046655792</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>77</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2618322910.50613</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4085009640.546926</v>
+        <v>5498325705.298181</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1732413667810202</v>
+        <v>0.1200839193425335</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02945746535378077</v>
+        <v>0.02465552993799485</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>82</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2042504862.111224</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3728472916.644567</v>
+        <v>5490381953.677035</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1198199609930956</v>
+        <v>0.1372305098365891</v>
       </c>
       <c r="G65" t="n">
-        <v>0.027103078518611</v>
+        <v>0.02968413743833382</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>96</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1864236493.087427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4570231624.41374</v>
+        <v>3675053568.99799</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1222601025812641</v>
+        <v>0.1370989481749243</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04703424159471201</v>
+        <v>0.04895937036853219</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>78</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2285115816.320233</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2755158424.746503</v>
+        <v>2933370321.549291</v>
       </c>
       <c r="F67" t="n">
-        <v>0.100235670072292</v>
+        <v>0.08964684946621231</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0515151301754979</v>
+        <v>0.0401577130694107</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>86</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1377579251.394535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5205462225.098503</v>
+        <v>4634784974.312939</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1468512383801142</v>
+        <v>0.1355141240778756</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05082185210846365</v>
+        <v>0.03855393532176565</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2602731181.380614</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1572035853.266236</v>
+        <v>1776340635.651407</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1456744183750149</v>
+        <v>0.1448525637730638</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04664740429375446</v>
+        <v>0.04212639880256096</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>786017876.2258217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3505936200.197611</v>
+        <v>2833151753.398975</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09551371237436121</v>
+        <v>0.07115286252753403</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03420838939806516</v>
+        <v>0.04607410071689601</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>76</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1752968109.969055</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3534290096.84552</v>
+        <v>5003144109.627067</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1558800218331402</v>
+        <v>0.1285455622817691</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02557518855950107</v>
+        <v>0.02915289711525253</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>96</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1767145044.684232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2280793868.310541</v>
+        <v>1374719346.729866</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08809433638236012</v>
+        <v>0.06788204136726743</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04943006143819589</v>
+        <v>0.03360896838745953</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1140396835.179754</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3345002889.957035</v>
+        <v>2957754038.073115</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09255091860535704</v>
+        <v>0.1128147675531729</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04354124313989598</v>
+        <v>0.03788588940015075</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>101</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1672501409.372138</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2562472831.342948</v>
+        <v>3238440577.426433</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1135886531354526</v>
+        <v>0.1290931676162048</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02831511441167432</v>
+        <v>0.02656660607895887</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>90</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1281236518.908702</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2011622081.43237</v>
+        <v>1777408108.471668</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1449283996171156</v>
+        <v>0.1609168944043805</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02389482717315117</v>
+        <v>0.03017741969608403</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1005811003.777252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5292416096.672103</v>
+        <v>4094577461.312132</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09943339688171146</v>
+        <v>0.07682605248349231</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03052012521004346</v>
+        <v>0.03237995396807874</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2646208087.254837</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1467630424.1202</v>
+        <v>2144490162.694082</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1414045466129852</v>
+        <v>0.1400262128048546</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02436603145969426</v>
+        <v>0.0285876754124863</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>733815194.9556412</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3907364558.877827</v>
+        <v>4257983999.587554</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1104591256721724</v>
+        <v>0.1005814398843306</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04537714044138017</v>
+        <v>0.04786490938505197</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>93</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1953682251.769095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1574044907.668403</v>
+        <v>1715497298.59229</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1543121993586844</v>
+        <v>0.1625451437546299</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03626937123547784</v>
+        <v>0.04017184923734937</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>787022500.9856631</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4171849718.49755</v>
+        <v>3700291542.005256</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1097119794786671</v>
+        <v>0.07150415461056174</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03542643963064791</v>
+        <v>0.03776808006312325</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>55</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2085924867.255081</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4003352962.088337</v>
+        <v>4223548195.038074</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1116980243003459</v>
+        <v>0.08463694110070244</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02376244134765706</v>
+        <v>0.02083073594170375</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>58</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2001676444.352956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4405406886.083599</v>
+        <v>3446692082.012856</v>
       </c>
       <c r="F82" t="n">
-        <v>0.215597206366722</v>
+        <v>0.1328505401281657</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02160108388180183</v>
+        <v>0.02251965098268756</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>94</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2202703460.179198</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2069352329.662709</v>
+        <v>2467444326.044121</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1297295697776712</v>
+        <v>0.0981459509266292</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03729220064577708</v>
+        <v>0.03382400993403104</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1034676158.732124</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2432481473.420178</v>
+        <v>2326715670.008486</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1143165377019976</v>
+        <v>0.08300254957081842</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03739977465320055</v>
+        <v>0.04709372423779105</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1216240678.353213</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2900895904.041112</v>
+        <v>3256357651.277572</v>
       </c>
       <c r="F85" t="n">
-        <v>0.168217235050235</v>
+        <v>0.1459563411835622</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0432861980543806</v>
+        <v>0.04458051711933414</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>100</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1450448001.216598</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2025139521.931622</v>
+        <v>2348299852.323376</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1577990222999161</v>
+        <v>0.1326753702246307</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02450364841950404</v>
+        <v>0.0167138997197485</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1012569792.093058</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1349392423.422156</v>
+        <v>1164054319.698543</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1884750518214484</v>
+        <v>0.1880336803704211</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03495381033073926</v>
+        <v>0.03294003066848334</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>674696305.5818573</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3143703962.502283</v>
+        <v>3230620387.012572</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1504023842025393</v>
+        <v>0.1760348823462157</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03571446523247302</v>
+        <v>0.02900497677021537</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>104</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1571852025.890233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2881334792.863333</v>
+        <v>2673998362.246539</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0999800373134081</v>
+        <v>0.1416768555707984</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03780190266970845</v>
+        <v>0.02860227200505019</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>89</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1440667443.247689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1717207894.994645</v>
+        <v>1474970167.665665</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1314297902730328</v>
+        <v>0.134208284795407</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05191936482116015</v>
+        <v>0.04437667834952282</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>858603965.9621646</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1512158340.503135</v>
+        <v>1428101678.74377</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1619244343913235</v>
+        <v>0.1567041737516084</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03971997180082228</v>
+        <v>0.05370273708999011</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>756079207.5631731</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1836067563.698725</v>
+        <v>2019459160.130581</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1104656607867152</v>
+        <v>0.070281349924982</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04631577870438415</v>
+        <v>0.03115083740748074</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>66</v>
-      </c>
-      <c r="J92" t="n">
-        <v>918033715.630989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4706654055.824623</v>
+        <v>3200599581.055315</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1399611049875819</v>
+        <v>0.1370440938595315</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05116239373214986</v>
+        <v>0.04323015249967629</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2353326982.81403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1878110825.819132</v>
+        <v>2322521802.815961</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1157453245089976</v>
+        <v>0.1066415905340795</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04077011944993285</v>
+        <v>0.03849207019598695</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>939055395.3984226</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2734706719.776263</v>
+        <v>2672820136.504166</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09942561923058256</v>
+        <v>0.1310766996794396</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03413064180795764</v>
+        <v>0.05253041938923291</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>65</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1367353378.892405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1532882577.860522</v>
+        <v>1965938511.293508</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09051837373770689</v>
+        <v>0.09749706928712035</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03518544542202839</v>
+        <v>0.04029006553361815</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>766441325.7773532</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4466988975.965053</v>
+        <v>4403382974.086512</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1073999780802206</v>
+        <v>0.1628349413631981</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01874320570300148</v>
+        <v>0.02539852138821783</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>85</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2233494581.923032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3058593898.431055</v>
+        <v>3119340177.611478</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1008827795696797</v>
+        <v>0.1107386799137121</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0326446367940518</v>
+        <v>0.02672248695928699</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>70</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1529296937.862164</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3000742188.616071</v>
+        <v>2359293019.567789</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1014565081110338</v>
+        <v>0.1128921691356437</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0220330045416312</v>
+        <v>0.02314537564359876</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>82</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1500371080.314036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4199677102.410646</v>
+        <v>3213202777.415699</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1518020594538331</v>
+        <v>0.1214062691626344</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0280023643579347</v>
+        <v>0.02808558036566822</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>83</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2099838637.81578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3599459949.719369</v>
+        <v>3002976206.089069</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2002492163191391</v>
+        <v>0.1614460559617783</v>
       </c>
       <c r="G101" t="n">
-        <v>0.058392576593498</v>
+        <v>0.0548456637148378</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>106</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1799730143.106174</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_265.xlsx
+++ b/output/fit_clients/fit_round_265.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1743869064.102373</v>
+        <v>1779890865.218991</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1013412257085788</v>
+        <v>0.08242234270775113</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03442224044836082</v>
+        <v>0.03857870003321344</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1716641899.478842</v>
+        <v>1739470844.89699</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1695179413384006</v>
+        <v>0.153390758387399</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05022061827027874</v>
+        <v>0.04784256675790077</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4983495909.199816</v>
+        <v>3902829182.011439</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1064206033254666</v>
+        <v>0.1133378828312808</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0234643326888364</v>
+        <v>0.0347182216309937</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3684539540.126064</v>
+        <v>4039799885.831064</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07154203967482455</v>
+        <v>0.1089543396887062</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05058301784846427</v>
+        <v>0.04866196437248393</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2563163400.253146</v>
+        <v>2416272069.109324</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0901376459637038</v>
+        <v>0.1462749592353026</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05177248085378201</v>
+        <v>0.05243986294152496</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3011633501.509328</v>
+        <v>2738665839.337265</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07967247141862896</v>
+        <v>0.08294802717210174</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03298103808636118</v>
+        <v>0.03443032145864312</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3311819565.806148</v>
+        <v>3855796854.424369</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2053954772127657</v>
+        <v>0.1796233593491891</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03232309684003372</v>
+        <v>0.02139767339894199</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2218541323.994338</v>
+        <v>2306863312.737637</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1748184925633121</v>
+        <v>0.1413411708822049</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02303494413712939</v>
+        <v>0.0329543007455053</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4489961808.288316</v>
+        <v>5789772687.572285</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1768832229706188</v>
+        <v>0.2129240295362718</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04502547024350455</v>
+        <v>0.04681657797082127</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4217861770.575315</v>
+        <v>3197592289.955483</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1526903210289292</v>
+        <v>0.1711544951773821</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03303728578673409</v>
+        <v>0.03819489413392847</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2772905426.303343</v>
+        <v>2622124557.644184</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1477078178809458</v>
+        <v>0.1657041926476437</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0530466380221607</v>
+        <v>0.05010729257018268</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3947356813.6945</v>
+        <v>3633590963.475272</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09762552962855683</v>
+        <v>0.08621881960178977</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01977027031880526</v>
+        <v>0.02357849210856743</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3293291567.711937</v>
+        <v>2922093326.378241</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1434402928235078</v>
+        <v>0.1609600037765409</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0298197913264652</v>
+        <v>0.03293304361262301</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1154608638.424819</v>
+        <v>1359969675.161826</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1010522463381927</v>
+        <v>0.07610199685342459</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03144469783580073</v>
+        <v>0.04670850854736023</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1772476254.713589</v>
+        <v>2482901892.043152</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09885838429079188</v>
+        <v>0.1126888806199414</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04261282013192902</v>
+        <v>0.0484680460986483</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3405672623.345254</v>
+        <v>4507015032.746555</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1168167144351528</v>
+        <v>0.1572053326595442</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04753629360717643</v>
+        <v>0.04885480642364058</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3016663410.063166</v>
+        <v>2503089824.258555</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1849115187035537</v>
+        <v>0.1413631499363471</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02494153001310533</v>
+        <v>0.02980529905202314</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1373550541.599755</v>
+        <v>1292541625.025642</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1491242818496226</v>
+        <v>0.1202515976878477</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02059846482715513</v>
+        <v>0.02267774375755372</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2091465081.567875</v>
+        <v>1902227871.464182</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1168158696174648</v>
+        <v>0.1170221434905772</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02880156672758004</v>
+        <v>0.03153673888871492</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1710379197.086438</v>
+        <v>1747727627.452852</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06241650006918065</v>
+        <v>0.09528292750482012</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03499776930779509</v>
+        <v>0.02800069276467622</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2494270303.815187</v>
+        <v>3029759809.435956</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1053991451028299</v>
+        <v>0.1027579160967887</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04188131526267486</v>
+        <v>0.05252615717121981</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1454292409.347519</v>
+        <v>1296294908.400453</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1796489060293328</v>
+        <v>0.1589890586002942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03346692500344064</v>
+        <v>0.0456832772478224</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2559149995.224932</v>
+        <v>3742014216.178486</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09478812608076453</v>
+        <v>0.09332044451890281</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02791026646381477</v>
+        <v>0.02732857725158663</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>992428210.6606442</v>
+        <v>1344080175.236112</v>
       </c>
       <c r="F25" t="n">
-        <v>0.11816664954394</v>
+        <v>0.1036105476123344</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01910838879020298</v>
+        <v>0.02940793200207003</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>935761940.6467564</v>
+        <v>1088753158.114973</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1242376071135077</v>
+        <v>0.07718055767295162</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02866321024475073</v>
+        <v>0.02469011475230722</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2849082959.178589</v>
+        <v>3853468312.195688</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09490435422885875</v>
+        <v>0.1503070228379856</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0246051249377905</v>
+        <v>0.0270618252689467</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3125396278.215575</v>
+        <v>2683985351.021255</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1346508217826871</v>
+        <v>0.09427868048401374</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03657177746169277</v>
+        <v>0.04216058536607533</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5731726475.71742</v>
+        <v>5846384604.436465</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09749013495371471</v>
+        <v>0.1509168039353778</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03019175933973096</v>
+        <v>0.04674263962339372</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1922634807.620031</v>
+        <v>2344857822.940701</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1355477505760413</v>
+        <v>0.1200262705492696</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02598388596674919</v>
+        <v>0.02994694517246334</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1420740121.218406</v>
+        <v>1172454798.561432</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1043832293158276</v>
+        <v>0.09443947163124418</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05257359231772115</v>
+        <v>0.04122965177961491</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1488358743.088627</v>
+        <v>1705357712.329939</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08893339498192365</v>
+        <v>0.1003871635357544</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03485755821955967</v>
+        <v>0.03305565624631309</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2885169938.015485</v>
+        <v>2162588029.657452</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1810051146886134</v>
+        <v>0.1325990583492289</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0369889188979517</v>
+        <v>0.04593038110548716</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1534725733.642293</v>
+        <v>1508792404.01834</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1027653286287645</v>
+        <v>0.1069776653089379</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0212271625762352</v>
+        <v>0.01892678519625005</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1258424562.712591</v>
+        <v>903065717.1512395</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09093932612322594</v>
+        <v>0.1083122848702043</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03570471368777873</v>
+        <v>0.04469113582410687</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2974756324.901555</v>
+        <v>2513271256.716681</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1245514373114847</v>
+        <v>0.1089195298265622</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02476711705519844</v>
+        <v>0.02458291382251857</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2519620661.013813</v>
+        <v>2107833125.055799</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08956800537479809</v>
+        <v>0.07299502043188155</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03773271151466968</v>
+        <v>0.03067453478569709</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1885981447.347402</v>
+        <v>2019309733.031832</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07978122912680043</v>
+        <v>0.08357937078818703</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0284093065261578</v>
+        <v>0.02600697850279087</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1751219195.136252</v>
+        <v>1412719434.023459</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1536178479347803</v>
+        <v>0.1549901501639433</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03070234673139555</v>
+        <v>0.02140251001075387</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1772013595.492323</v>
+        <v>1343657652.38365</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1611703505581116</v>
+        <v>0.1207358503946711</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05054168083891847</v>
+        <v>0.0483554490757333</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2432800430.738119</v>
+        <v>2024010559.186959</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1060730242215249</v>
+        <v>0.1271927196265817</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03373311819011687</v>
+        <v>0.04588016054967366</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4311713875.103068</v>
+        <v>3831421905.125096</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09947993373202794</v>
+        <v>0.09094965327479637</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03618752384212004</v>
+        <v>0.04022520954025329</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2433758424.675221</v>
+        <v>2622851840.135646</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1638151367709803</v>
+        <v>0.1806198882547014</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02210065038852828</v>
+        <v>0.01894979855035909</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1776495748.972227</v>
+        <v>2175177233.702886</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07243290485372159</v>
+        <v>0.07116171890550882</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03615743986877733</v>
+        <v>0.02510339787575293</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1546203282.449628</v>
+        <v>1912753148.859031</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1913454673249461</v>
+        <v>0.161849531843183</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0395763184206935</v>
+        <v>0.04362720679209454</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5323170858.16118</v>
+        <v>5720206090.70582</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1474942658895206</v>
+        <v>0.1211692781759349</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04219164086586573</v>
+        <v>0.05025647782970313</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3500437120.965844</v>
+        <v>4989167263.765911</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1421596591722903</v>
+        <v>0.1265575554617722</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05862239157572648</v>
+        <v>0.05229072683110028</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3327975936.41076</v>
+        <v>3379324171.186155</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06907417941991469</v>
+        <v>0.09196888226126035</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03790964569339193</v>
+        <v>0.0248573423658981</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1510835910.413801</v>
+        <v>1571341480.143175</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1463898065900863</v>
+        <v>0.1791684516824964</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03654720072904397</v>
+        <v>0.04199526581923517</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3623037730.405408</v>
+        <v>3440763479.695589</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1706786590586159</v>
+        <v>0.1291615221126354</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05020518269570317</v>
+        <v>0.04210608768512559</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>933819296.2377315</v>
+        <v>1522602007.326105</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1197734943148761</v>
+        <v>0.1287326988451107</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04746769428355897</v>
+        <v>0.03858041376559303</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3613991263.100243</v>
+        <v>4504743767.541857</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1363186136562119</v>
+        <v>0.09385024194456461</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04345673712755412</v>
+        <v>0.04999747874436886</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2438244261.456058</v>
+        <v>2699614416.689386</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1544015158817267</v>
+        <v>0.1859668474952853</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0293543811054046</v>
+        <v>0.03354862812123743</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3451903277.132071</v>
+        <v>3050061180.12213</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1248620176538378</v>
+        <v>0.120542845275815</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04178710132249581</v>
+        <v>0.05004242598517415</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4885230446.073133</v>
+        <v>4884184378.345925</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1449781983550368</v>
+        <v>0.1757672566988347</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02803481739333771</v>
+        <v>0.02380008588590731</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1356947867.548793</v>
+        <v>1530518796.800938</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1645494982090373</v>
+        <v>0.1556229665744013</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04693225054876585</v>
+        <v>0.05322733643561744</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4483169287.483718</v>
+        <v>4387895728.252447</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1311583562314787</v>
+        <v>0.1528661989126631</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0211799019833965</v>
+        <v>0.01727293538664691</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1667144377.586858</v>
+        <v>1708675074.217888</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1436347070363924</v>
+        <v>0.1534361049100674</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03329016523609642</v>
+        <v>0.03650800867153774</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5424191780.211678</v>
+        <v>4346562819.55416</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1042674724723404</v>
+        <v>0.09729910957685733</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03598807190319258</v>
+        <v>0.04575862736311759</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3757243026.29395</v>
+        <v>3424209428.115259</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1988912868106333</v>
+        <v>0.1420449472271111</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02012662759851894</v>
+        <v>0.02995076994303792</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2065980856.77598</v>
+        <v>2560542297.101757</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1251746039873742</v>
+        <v>0.1301069957175687</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02307995638686043</v>
+        <v>0.02836389647344862</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1318320694.532251</v>
+        <v>1472558268.384084</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1387844753434799</v>
+        <v>0.1623425522105831</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03721572770414486</v>
+        <v>0.03949254311033954</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5620093004.112568</v>
+        <v>4302173028.634476</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07869601959192372</v>
+        <v>0.07943971624401346</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02939004046655792</v>
+        <v>0.03941837479965851</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5498325705.298181</v>
+        <v>5081892099.726047</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1200839193425335</v>
+        <v>0.1405520579944131</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02465552993799485</v>
+        <v>0.02247842364648702</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5490381953.677035</v>
+        <v>3853048051.43334</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1372305098365891</v>
+        <v>0.1077210172846316</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02968413743833382</v>
+        <v>0.0260574670031746</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3675053568.99799</v>
+        <v>3704026002.311427</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1370989481749243</v>
+        <v>0.1569630124609658</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04895937036853219</v>
+        <v>0.03678659569305339</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2933370321.549291</v>
+        <v>2270124350.552711</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08964684946621231</v>
+        <v>0.1026827431632433</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0401577130694107</v>
+        <v>0.03913656399611416</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4634784974.312939</v>
+        <v>4212839376.977827</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1355141240778756</v>
+        <v>0.1539294504459976</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03855393532176565</v>
+        <v>0.04266402708707468</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1776340635.651407</v>
+        <v>1948153079.755065</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1448525637730638</v>
+        <v>0.1436494748704044</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04212639880256096</v>
+        <v>0.04695089035778189</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2833151753.398975</v>
+        <v>3025576918.392666</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07115286252753403</v>
+        <v>0.1005163747948304</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04607410071689601</v>
+        <v>0.0495300077937986</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5003144109.627067</v>
+        <v>4935907754.143663</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1285455622817691</v>
+        <v>0.1392770919499184</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02915289711525253</v>
+        <v>0.03030880189404295</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1374719346.729866</v>
+        <v>1775858069.234479</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06788204136726743</v>
+        <v>0.08748789553217111</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03360896838745953</v>
+        <v>0.0420836004329299</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2957754038.073115</v>
+        <v>2605915717.390516</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1128147675531729</v>
+        <v>0.1129229027751443</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03788588940015075</v>
+        <v>0.04282044805408947</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3238440577.426433</v>
+        <v>3312103182.310866</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1290931676162048</v>
+        <v>0.1500406424392702</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02656660607895887</v>
+        <v>0.03196927846341231</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1777408108.471668</v>
+        <v>2316858565.05246</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1609168944043805</v>
+        <v>0.1640087266916813</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03017741969608403</v>
+        <v>0.03001490845839021</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4094577461.312132</v>
+        <v>4603001308.18809</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07682605248349231</v>
+        <v>0.1155365980597232</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03237995396807874</v>
+        <v>0.02569751851092629</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2144490162.694082</v>
+        <v>1792728944.954192</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1400262128048546</v>
+        <v>0.1809766399881837</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0285876754124863</v>
+        <v>0.02122890109042927</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4257983999.587554</v>
+        <v>3497312831.83047</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1005814398843306</v>
+        <v>0.1288647261043124</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04786490938505197</v>
+        <v>0.04718608455412932</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1715497298.59229</v>
+        <v>1476640533.784946</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1625451437546299</v>
+        <v>0.1640999216860058</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04017184923734937</v>
+        <v>0.03691218774870339</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3700291542.005256</v>
+        <v>3418472695.329647</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07150415461056174</v>
+        <v>0.06849450079397022</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03776808006312325</v>
+        <v>0.02395588844801986</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4223548195.038074</v>
+        <v>4247793815.746111</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08463694110070244</v>
+        <v>0.1185701769448633</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02083073594170375</v>
+        <v>0.0310639941106145</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3446692082.012856</v>
+        <v>3577875902.577127</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1328505401281657</v>
+        <v>0.2012565842595758</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02251965098268756</v>
+        <v>0.02685199828610016</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2467444326.044121</v>
+        <v>2055938983.816118</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0981459509266292</v>
+        <v>0.1023322829851246</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03382400993403104</v>
+        <v>0.03757041536108773</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2326715670.008486</v>
+        <v>2039450454.833466</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08300254957081842</v>
+        <v>0.1085663680005552</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04709372423779105</v>
+        <v>0.05088668783772751</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3256357651.277572</v>
+        <v>3539573628.344264</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1459563411835622</v>
+        <v>0.1371004035840151</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04458051711933414</v>
+        <v>0.04696890764880936</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2348299852.323376</v>
+        <v>2665830242.45557</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1326753702246307</v>
+        <v>0.112333251960299</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0167138997197485</v>
+        <v>0.02468434879383045</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1164054319.698543</v>
+        <v>1399185012.508542</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1880336803704211</v>
+        <v>0.1524908808007651</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03294003066848334</v>
+        <v>0.04409241041864893</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3230620387.012572</v>
+        <v>2769999715.658239</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1760348823462157</v>
+        <v>0.1283377777195271</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02900497677021537</v>
+        <v>0.03783489945173261</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2673998362.246539</v>
+        <v>2297248214.116425</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1416768555707984</v>
+        <v>0.1330156496877651</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02860227200505019</v>
+        <v>0.0258507607959764</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1474970167.665665</v>
+        <v>1899245883.918884</v>
       </c>
       <c r="F90" t="n">
-        <v>0.134208284795407</v>
+        <v>0.1274392164176263</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04437667834952282</v>
+        <v>0.04190028680038673</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1428101678.74377</v>
+        <v>1405320905.148178</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1567041737516084</v>
+        <v>0.1279878993952408</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05370273708999011</v>
+        <v>0.05654087807121455</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2019459160.130581</v>
+        <v>2195428340.107043</v>
       </c>
       <c r="F92" t="n">
-        <v>0.070281349924982</v>
+        <v>0.09425017057338736</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03115083740748074</v>
+        <v>0.03908631941520429</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3200599581.055315</v>
+        <v>3658148116.546595</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1370440938595315</v>
+        <v>0.1425364889405797</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04323015249967629</v>
+        <v>0.03840425765381308</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2322521802.815961</v>
+        <v>2076332273.156303</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1066415905340795</v>
+        <v>0.1618574466767149</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03849207019598695</v>
+        <v>0.03626974150592735</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2672820136.504166</v>
+        <v>2033252139.197946</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1310766996794396</v>
+        <v>0.09056767120688131</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05253041938923291</v>
+        <v>0.04650155626025917</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1965938511.293508</v>
+        <v>2382300510.78611</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09749706928712035</v>
+        <v>0.09638349054205424</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04029006553361815</v>
+        <v>0.04047269669862857</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4403382974.086512</v>
+        <v>3414661904.777809</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1628349413631981</v>
+        <v>0.1738218941871924</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02539852138821783</v>
+        <v>0.02579214254315073</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3119340177.611478</v>
+        <v>3507630928.181883</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1107386799137121</v>
+        <v>0.09497392650577674</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02672248695928699</v>
+        <v>0.02844516152789476</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2359293019.567789</v>
+        <v>2235489210.935621</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1128921691356437</v>
+        <v>0.09957175790188356</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02314537564359876</v>
+        <v>0.02889397038874741</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3213202777.415699</v>
+        <v>4074632760.109472</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1214062691626344</v>
+        <v>0.1358886081620386</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02808558036566822</v>
+        <v>0.02504503836155286</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3002976206.089069</v>
+        <v>2298854583.81615</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1614460559617783</v>
+        <v>0.1994328974541785</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0548456637148378</v>
+        <v>0.03549338068229622</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_265.xlsx
+++ b/output/fit_clients/fit_round_265.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1779890865.218991</v>
+        <v>2136089500.964159</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08242234270775113</v>
+        <v>0.07092846004484669</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03857870003321344</v>
+        <v>0.03423598409818784</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1739470844.89699</v>
+        <v>2327266145.91812</v>
       </c>
       <c r="F3" t="n">
-        <v>0.153390758387399</v>
+        <v>0.1541813212505068</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04784256675790077</v>
+        <v>0.04733883362703468</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3902829182.011439</v>
+        <v>4595235671.710778</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1133378828312808</v>
+        <v>0.1121827679468239</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0347182216309937</v>
+        <v>0.02877631306608401</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>142</v>
+      </c>
+      <c r="J4" t="n">
+        <v>265</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4039799885.831064</v>
+        <v>3219664061.782088</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1089543396887062</v>
+        <v>0.07452106938323283</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04866196437248393</v>
+        <v>0.04980659821005916</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>108</v>
+      </c>
+      <c r="J5" t="n">
+        <v>259</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2416272069.109324</v>
+        <v>2649706400.028362</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1462749592353026</v>
+        <v>0.141070328893104</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05243986294152496</v>
+        <v>0.04356161254317139</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2738665839.337265</v>
+        <v>3027632537.639475</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08294802717210174</v>
+        <v>0.1007828731731582</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03443032145864312</v>
+        <v>0.03033325891865097</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3855796854.424369</v>
+        <v>2803701483.999908</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1796233593491891</v>
+        <v>0.1356305815326991</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02139767339894199</v>
+        <v>0.02197484133660061</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>69</v>
+      </c>
+      <c r="J8" t="n">
+        <v>255</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2306863312.737637</v>
+        <v>1621828471.750791</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1413411708822049</v>
+        <v>0.1347399218143534</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0329543007455053</v>
+        <v>0.02444182298999647</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5789772687.572285</v>
+        <v>4960342666.464553</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2129240295362718</v>
+        <v>0.1547314595512428</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04681657797082127</v>
+        <v>0.03338121538365259</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>240</v>
+      </c>
+      <c r="J10" t="n">
+        <v>265</v>
+      </c>
+      <c r="K10" t="n">
+        <v>99.06164335635742</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +818,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3197592289.955483</v>
+        <v>4015352463.57242</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1711544951773821</v>
+        <v>0.1862227647921604</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03819489413392847</v>
+        <v>0.03141615822417874</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>108</v>
+      </c>
+      <c r="J11" t="n">
+        <v>265</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2622124557.644184</v>
+        <v>2308789554.407481</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1657041926476437</v>
+        <v>0.1867826546262947</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05010729257018268</v>
+        <v>0.03890262498215159</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3633590963.475272</v>
+        <v>4897589678.550067</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08621881960178977</v>
+        <v>0.066354082844704</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02357849210856743</v>
+        <v>0.01941584874016465</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>134</v>
+      </c>
+      <c r="J13" t="n">
+        <v>265</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +923,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2922093326.378241</v>
+        <v>2800474911.030744</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1609600037765409</v>
+        <v>0.1824367706168604</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03293304361262301</v>
+        <v>0.03382081878731774</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>53</v>
+      </c>
+      <c r="J14" t="n">
+        <v>262</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +958,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1359969675.161826</v>
+        <v>1663719065.931184</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07610199685342459</v>
+        <v>0.07361915450097757</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04670850854736023</v>
+        <v>0.03492284137637313</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2482901892.043152</v>
+        <v>2601698468.586116</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1126888806199414</v>
+        <v>0.09923987798399245</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0484680460986483</v>
+        <v>0.04323608497840661</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1028,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4507015032.746555</v>
+        <v>3349004406.642094</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1572053326595442</v>
+        <v>0.1454402687902605</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04885480642364058</v>
+        <v>0.04356561336797561</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>127</v>
+      </c>
+      <c r="J17" t="n">
+        <v>264</v>
+      </c>
+      <c r="K17" t="n">
+        <v>60.16475071724576</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1065,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2503089824.258555</v>
+        <v>2792048694.651381</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1413631499363471</v>
+        <v>0.1468410279844954</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02980529905202314</v>
+        <v>0.02661910371881447</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>66</v>
+      </c>
+      <c r="J18" t="n">
+        <v>263</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1292541625.025642</v>
+        <v>1296526034.271361</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1202515976878477</v>
+        <v>0.1552606058403354</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02267774375755372</v>
+        <v>0.02336616080116188</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1902227871.464182</v>
+        <v>2049829996.892713</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1170221434905772</v>
+        <v>0.105653374047227</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03153673888871492</v>
+        <v>0.02981408328832051</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1747727627.452852</v>
+        <v>2661752594.230877</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09528292750482012</v>
+        <v>0.0626395783472964</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02800069276467622</v>
+        <v>0.02941879145059868</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3029759809.435956</v>
+        <v>3816537533.172939</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1027579160967887</v>
+        <v>0.08756154963208553</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05252615717121981</v>
+        <v>0.04685350789004263</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>68</v>
+      </c>
+      <c r="J22" t="n">
+        <v>265</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1296294908.400453</v>
+        <v>1151444964.939825</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1589890586002942</v>
+        <v>0.1460070648538033</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0456832772478224</v>
+        <v>0.04891417390391898</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1269,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3742014216.178486</v>
+        <v>3097573661.176072</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09332044451890281</v>
+        <v>0.1436160255581949</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02732857725158663</v>
+        <v>0.03756408860892117</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>80</v>
+      </c>
+      <c r="J24" t="n">
+        <v>264</v>
+      </c>
+      <c r="K24" t="n">
+        <v>50.96891277488062</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1344080175.236112</v>
+        <v>1088734750.644982</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1036105476123344</v>
+        <v>0.0936767813916471</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02940793200207003</v>
+        <v>0.02789667219926233</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1088753158.114973</v>
+        <v>1408903113.297722</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07718055767295162</v>
+        <v>0.1177696516813071</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02469011475230722</v>
+        <v>0.02410668952694048</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3853468312.195688</v>
+        <v>4411556598.378053</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1503070228379856</v>
+        <v>0.1015203938753191</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0270618252689467</v>
+        <v>0.02391777567531178</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>108</v>
+      </c>
+      <c r="J27" t="n">
+        <v>265</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2683985351.021255</v>
+        <v>3065772129.828566</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09427868048401374</v>
+        <v>0.1495437559401931</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04216058536607533</v>
+        <v>0.03541764716366828</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>54</v>
+      </c>
+      <c r="J28" t="n">
+        <v>263</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5846384604.436465</v>
+        <v>4214937411.323826</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1509168039353778</v>
+        <v>0.1123885848148049</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04674263962339372</v>
+        <v>0.04011785330131652</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>253</v>
+      </c>
+      <c r="J29" t="n">
+        <v>265</v>
+      </c>
+      <c r="K29" t="n">
+        <v>100.5051262343323</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2344857822.940701</v>
+        <v>1929104331.021534</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1200262705492696</v>
+        <v>0.1044507026289276</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02994694517246334</v>
+        <v>0.02583718755209511</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1172454798.561432</v>
+        <v>998032006.3255844</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09443947163124418</v>
+        <v>0.1122630358189443</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04122965177961491</v>
+        <v>0.03532345475931601</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1705357712.329939</v>
+        <v>1474573855.138379</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1003871635357544</v>
+        <v>0.07599328165819404</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03305565624631309</v>
+        <v>0.02856306801214166</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2162588029.657452</v>
+        <v>2487757031.838807</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1325990583492289</v>
+        <v>0.1297405501103372</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04593038110548716</v>
+        <v>0.05908477567069632</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1508792404.01834</v>
+        <v>1338865671.489465</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1069776653089379</v>
+        <v>0.106980063789441</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01892678519625005</v>
+        <v>0.01900371177978482</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1664,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>903065717.1512395</v>
+        <v>1268495385.144653</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1083122848702043</v>
+        <v>0.09981064020761243</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04469113582410687</v>
+        <v>0.02764611998674785</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2513271256.716681</v>
+        <v>2542763431.659008</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1089195298265622</v>
+        <v>0.156141476416839</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02458291382251857</v>
+        <v>0.0175995330541706</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2107833125.055799</v>
+        <v>2932969693.540026</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07299502043188155</v>
+        <v>0.0935581091143594</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03067453478569709</v>
+        <v>0.02925925442704371</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2019309733.031832</v>
+        <v>2063669430.051894</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08357937078818703</v>
+        <v>0.1063500627158577</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02600697850279087</v>
+        <v>0.02810444007153956</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1804,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1412719434.023459</v>
+        <v>1566067582.061293</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1549901501639433</v>
+        <v>0.170103301960937</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02140251001075387</v>
+        <v>0.02061889691495143</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1839,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1343657652.38365</v>
+        <v>1531328004.843796</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1207358503946711</v>
+        <v>0.1534093364734296</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0483554490757333</v>
+        <v>0.03879624680489178</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2024010559.186959</v>
+        <v>2455149957.659144</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1271927196265817</v>
+        <v>0.1654476395967351</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04588016054967366</v>
+        <v>0.04529734995101427</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1903,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3831421905.125096</v>
+        <v>4355391394.082533</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09094965327479637</v>
+        <v>0.08930872947503263</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04022520954025329</v>
+        <v>0.03691496539906835</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>111</v>
+      </c>
+      <c r="J42" t="n">
+        <v>265</v>
+      </c>
+      <c r="K42" t="n">
+        <v>105.2599230112255</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2622851840.135646</v>
+        <v>2770781747.647515</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1806198882547014</v>
+        <v>0.1860460453589582</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01894979855035909</v>
+        <v>0.01662354842701922</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2175177233.702886</v>
+        <v>2160763215.39961</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07116171890550882</v>
+        <v>0.0771118094406487</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02510339787575293</v>
+        <v>0.02257662027493518</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1912753148.859031</v>
+        <v>2234929163.160293</v>
       </c>
       <c r="F45" t="n">
-        <v>0.161849531843183</v>
+        <v>0.1714172627220036</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04362720679209454</v>
+        <v>0.05174326156535199</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5720206090.70582</v>
+        <v>4868951826.963416</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1211692781759349</v>
+        <v>0.1553627767650523</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05025647782970313</v>
+        <v>0.06122915224793463</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>154</v>
+      </c>
+      <c r="J46" t="n">
+        <v>265</v>
+      </c>
+      <c r="K46" t="n">
+        <v>97.69196277542822</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2088,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4989167263.765911</v>
+        <v>4904692818.830826</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1265575554617722</v>
+        <v>0.154124636714453</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05229072683110028</v>
+        <v>0.04152021732025737</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>120</v>
+      </c>
+      <c r="J47" t="n">
+        <v>264</v>
+      </c>
+      <c r="K47" t="n">
+        <v>80.54383184570466</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2125,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3379324171.186155</v>
+        <v>4344099834.070568</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09196888226126035</v>
+        <v>0.08949047881490264</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0248573423658981</v>
+        <v>0.0310021696312219</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>130</v>
+      </c>
+      <c r="J48" t="n">
+        <v>265</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1571341480.143175</v>
+        <v>1819164221.360327</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1791684516824964</v>
+        <v>0.1381261104532685</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04199526581923517</v>
+        <v>0.04076360697819777</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3440763479.695589</v>
+        <v>2972529108.702929</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1291615221126354</v>
+        <v>0.1602844234607034</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04210608768512559</v>
+        <v>0.03670256191463996</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>84</v>
+      </c>
+      <c r="J50" t="n">
+        <v>262</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1522602007.326105</v>
+        <v>1539771530.217886</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1287326988451107</v>
+        <v>0.1625709083959552</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03858041376559303</v>
+        <v>0.04831247922668803</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2265,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4504743767.541857</v>
+        <v>4487867127.023661</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09385024194456461</v>
+        <v>0.08684875565984694</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04999747874436886</v>
+        <v>0.05733952666669153</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>168</v>
+      </c>
+      <c r="J52" t="n">
+        <v>265</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2699614416.689386</v>
+        <v>3732189096.004024</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1859668474952853</v>
+        <v>0.1595965473602008</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03354862812123743</v>
+        <v>0.02565255464491178</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>36</v>
+      </c>
+      <c r="J53" t="n">
+        <v>265</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3050061180.12213</v>
+        <v>3590813420.321908</v>
       </c>
       <c r="F54" t="n">
-        <v>0.120542845275815</v>
+        <v>0.1194475570767486</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05004242598517415</v>
+        <v>0.03879843790173838</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>140</v>
+      </c>
+      <c r="J54" t="n">
+        <v>264</v>
+      </c>
+      <c r="K54" t="n">
+        <v>73.41486086169621</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4884184378.345925</v>
+        <v>3380812862.103637</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1757672566988347</v>
+        <v>0.1603213704409928</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02380008588590731</v>
+        <v>0.02702384466444354</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>119</v>
+      </c>
+      <c r="J55" t="n">
+        <v>264</v>
+      </c>
+      <c r="K55" t="n">
+        <v>64.56310659721467</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1530518796.800938</v>
+        <v>1470264991.199926</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1556229665744013</v>
+        <v>0.1551839892051333</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05322733643561744</v>
+        <v>0.03776938678573627</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4387895728.252447</v>
+        <v>2789944860.780414</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1528661989126631</v>
+        <v>0.1210319109337168</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01727293538664691</v>
+        <v>0.02083074926842548</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>106</v>
+      </c>
+      <c r="J57" t="n">
+        <v>263</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1708675074.217888</v>
+        <v>1248006882.731589</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1534361049100674</v>
+        <v>0.1986192719146133</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03650800867153774</v>
+        <v>0.02527118411725671</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4346562819.55416</v>
+        <v>4687518759.548497</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09729910957685733</v>
+        <v>0.09454862340235434</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04575862736311759</v>
+        <v>0.03423398349203755</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>128</v>
+      </c>
+      <c r="J59" t="n">
+        <v>264</v>
+      </c>
+      <c r="K59" t="n">
+        <v>89.79433253887764</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3424209428.115259</v>
+        <v>3756378239.474577</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1420449472271111</v>
+        <v>0.1673929770589724</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02995076994303792</v>
+        <v>0.03103760338405639</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>40</v>
+      </c>
+      <c r="J60" t="n">
+        <v>264</v>
+      </c>
+      <c r="K60" t="n">
+        <v>91.17470152912101</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2560542297.101757</v>
+        <v>2967691051.964923</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1301069957175687</v>
+        <v>0.1093249590460477</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02836389647344862</v>
+        <v>0.02119626285888272</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1472558268.384084</v>
+        <v>1483610146.70521</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1623425522105831</v>
+        <v>0.1274190582754382</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03949254311033954</v>
+        <v>0.03001661017653225</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4302173028.634476</v>
+        <v>4125717716.894674</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07943971624401346</v>
+        <v>0.09147800130734172</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03941837479965851</v>
+        <v>0.03935602192467476</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>129</v>
+      </c>
+      <c r="J63" t="n">
+        <v>264</v>
+      </c>
+      <c r="K63" t="n">
+        <v>91.67146291001077</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2695,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5081892099.726047</v>
+        <v>4959413539.274248</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1405520579944131</v>
+        <v>0.1541632966256741</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02247842364648702</v>
+        <v>0.03155292107868588</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>130</v>
+      </c>
+      <c r="J64" t="n">
+        <v>265</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3853048051.43334</v>
+        <v>3799895138.966071</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1077210172846316</v>
+        <v>0.1562892499792702</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0260574670031746</v>
+        <v>0.03088474904399127</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>213</v>
+      </c>
+      <c r="J65" t="n">
+        <v>264</v>
+      </c>
+      <c r="K65" t="n">
+        <v>84.07683955212111</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3704026002.311427</v>
+        <v>3574253773.837771</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1569630124609658</v>
+        <v>0.1338618356268845</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03678659569305339</v>
+        <v>0.03985463371080525</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>131</v>
+      </c>
+      <c r="J66" t="n">
+        <v>264</v>
+      </c>
+      <c r="K66" t="n">
+        <v>66.43094386817364</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2270124350.552711</v>
+        <v>2160663137.999948</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1026827431632433</v>
+        <v>0.08778121620228876</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03913656399611416</v>
+        <v>0.03506185270653275</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4212839376.977827</v>
+        <v>5643958365.40442</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1539294504459976</v>
+        <v>0.1588006974043214</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04266402708707468</v>
+        <v>0.03478163715511159</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>135</v>
+      </c>
+      <c r="J68" t="n">
+        <v>265</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1948153079.755065</v>
+        <v>1496787843.466811</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1436494748704044</v>
+        <v>0.1578052208288021</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04695089035778189</v>
+        <v>0.05325859785671561</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3025576918.392666</v>
+        <v>2934747007.995133</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1005163747948304</v>
+        <v>0.06624567363673126</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0495300077937986</v>
+        <v>0.03982526955799411</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4935907754.143663</v>
+        <v>4706116069.545331</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1392770919499184</v>
+        <v>0.1320925384400941</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03030880189404295</v>
+        <v>0.03116994765217039</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>200</v>
+      </c>
+      <c r="J71" t="n">
+        <v>265</v>
+      </c>
+      <c r="K71" t="n">
+        <v>97.98682796369592</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1775858069.234479</v>
+        <v>2255580394.994259</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08748789553217111</v>
+        <v>0.09076189609265223</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0420836004329299</v>
+        <v>0.0461417532021381</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2605915717.390516</v>
+        <v>2212401771.604651</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1129229027751443</v>
+        <v>0.07810467424982714</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04282044805408947</v>
+        <v>0.04324983704060378</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3312103182.310866</v>
+        <v>2502353580.063437</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1500406424392702</v>
+        <v>0.1846741704891386</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03196927846341231</v>
+        <v>0.03424952688584236</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>74</v>
+      </c>
+      <c r="J74" t="n">
+        <v>264</v>
+      </c>
+      <c r="K74" t="n">
+        <v>39.19120696843607</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2316858565.05246</v>
+        <v>2377249771.63116</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1640087266916813</v>
+        <v>0.1388953442098918</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03001490845839021</v>
+        <v>0.03725718737580035</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4603001308.18809</v>
+        <v>4754288678.131515</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1155365980597232</v>
+        <v>0.08280613381670759</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02569751851092629</v>
+        <v>0.02327655813884847</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>124</v>
+      </c>
+      <c r="J76" t="n">
+        <v>264</v>
+      </c>
+      <c r="K76" t="n">
+        <v>88.07485266893684</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1792728944.954192</v>
+        <v>2115881642.583338</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1809766399881837</v>
+        <v>0.1814630277787664</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02122890109042927</v>
+        <v>0.02593321190907611</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3195,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3497312831.83047</v>
+        <v>4410677362.007453</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1288647261043124</v>
+        <v>0.09184845615916566</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04718608455412932</v>
+        <v>0.04205910033528724</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>133</v>
+      </c>
+      <c r="J78" t="n">
+        <v>264</v>
+      </c>
+      <c r="K78" t="n">
+        <v>96.87876581843344</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1476640533.784946</v>
+        <v>1823501433.449808</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1640999216860058</v>
+        <v>0.149532737503488</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03691218774870339</v>
+        <v>0.02456377877935738</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3267,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3418472695.329647</v>
+        <v>4974333499.276314</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06849450079397022</v>
+        <v>0.093038532488459</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02395588844801986</v>
+        <v>0.03222611184308759</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>129</v>
+      </c>
+      <c r="J80" t="n">
+        <v>265</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4247793815.746111</v>
+        <v>4147488577.589367</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1185701769448633</v>
+        <v>0.1128258860605628</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0310639941106145</v>
+        <v>0.03228793655141507</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>121</v>
+      </c>
+      <c r="J81" t="n">
+        <v>265</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,17 +3337,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3577875902.577127</v>
+        <v>3467432215.399013</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2012565842595758</v>
+        <v>0.2036928910538612</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02685199828610016</v>
+        <v>0.02947189506489415</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
+      <c r="I82" t="n">
+        <v>198</v>
+      </c>
+      <c r="J82" t="n">
+        <v>263</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2055938983.816118</v>
+        <v>2012376309.852563</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1023322829851246</v>
+        <v>0.09572527955838502</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03757041536108773</v>
+        <v>0.03837745870511552</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2039450454.833466</v>
+        <v>1925629358.99153</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1085663680005552</v>
+        <v>0.07480535256232126</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05088668783772751</v>
+        <v>0.04442815677372759</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3539573628.344264</v>
+        <v>3672093539.359898</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1371004035840151</v>
+        <v>0.185096755483491</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04696890764880936</v>
+        <v>0.05029600081426313</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>265</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2665830242.45557</v>
+        <v>1805277831.926273</v>
       </c>
       <c r="F86" t="n">
-        <v>0.112333251960299</v>
+        <v>0.131755726331413</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02468434879383045</v>
+        <v>0.01689898752606868</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1399185012.508542</v>
+        <v>1397318879.654118</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1524908808007651</v>
+        <v>0.1447454998167757</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04409241041864893</v>
+        <v>0.04176877285030541</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2769999715.658239</v>
+        <v>2433967680.027695</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1283377777195271</v>
+        <v>0.1534479700475672</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03783489945173261</v>
+        <v>0.03941688926496603</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2297248214.116425</v>
+        <v>3278234342.771235</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1330156496877651</v>
+        <v>0.1272412307895643</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0258507607959764</v>
+        <v>0.02641175129658142</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>258</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1899245883.918884</v>
+        <v>1678999465.41892</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1274392164176263</v>
+        <v>0.1124571146051281</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04190028680038673</v>
+        <v>0.03618489352558411</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1405320905.148178</v>
+        <v>1912669747.442397</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1279878993952408</v>
+        <v>0.1574963727237278</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05654087807121455</v>
+        <v>0.04807192961517923</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2195428340.107043</v>
+        <v>2192763641.596872</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09425017057338736</v>
+        <v>0.1019639937541165</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03908631941520429</v>
+        <v>0.03334205764784832</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3658148116.546595</v>
+        <v>4304268781.032889</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1425364889405797</v>
+        <v>0.09143105472125489</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03840425765381308</v>
+        <v>0.04745975882765437</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>116</v>
+      </c>
+      <c r="J93" t="n">
+        <v>264</v>
+      </c>
+      <c r="K93" t="n">
+        <v>94.24483911887226</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2076332273.156303</v>
+        <v>1522211591.875675</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1618574466767149</v>
+        <v>0.1124121796147912</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03626974150592735</v>
+        <v>0.0328848528020297</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2033252139.197946</v>
+        <v>2207386061.684866</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09056767120688131</v>
+        <v>0.1259019070767367</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04650155626025917</v>
+        <v>0.04466476028121834</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2382300510.78611</v>
+        <v>1539473006.044796</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09638349054205424</v>
+        <v>0.1118352675580184</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04047269669862857</v>
+        <v>0.03226800074295617</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3414661904.777809</v>
+        <v>4099696008.45746</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1738218941871924</v>
+        <v>0.1160296046010446</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02579214254315073</v>
+        <v>0.01757943803659809</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>131</v>
+      </c>
+      <c r="J97" t="n">
+        <v>264</v>
+      </c>
+      <c r="K97" t="n">
+        <v>95.05292708770736</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3507630928.181883</v>
+        <v>3056005062.616902</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09497392650577674</v>
+        <v>0.1241999099792138</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02844516152789476</v>
+        <v>0.0243838686977852</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>64</v>
+      </c>
+      <c r="J98" t="n">
+        <v>260</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2235489210.935621</v>
+        <v>2434616360.650024</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09957175790188356</v>
+        <v>0.1059719261208616</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02889397038874741</v>
+        <v>0.02341809902333171</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4074632760.109472</v>
+        <v>3559765099.710632</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1358886081620386</v>
+        <v>0.1530234465766233</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02504503836155286</v>
+        <v>0.01960796521392648</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>111</v>
+      </c>
+      <c r="J100" t="n">
+        <v>265</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2298854583.81615</v>
+        <v>3488842623.474075</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1994328974541785</v>
+        <v>0.1619736935380646</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03549338068229622</v>
+        <v>0.0527005381267979</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>20</v>
+      </c>
+      <c r="J101" t="n">
+        <v>265</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
